--- a/biology/Médecine/Michel_Sadelain/Michel_Sadelain.xlsx
+++ b/biology/Médecine/Michel_Sadelain/Michel_Sadelain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Sadelain, né en 1960 à Paris[1], est ingénieur généticien et thérapeute cellulaire au Memorial Sloan Kettering Cancer Center de New York, où il est titulaire de la chaire Steve et Barbara Friedman[2]. Il est le directeur fondateur du Centre d'ingénierie cellulaire et le chef du Laboratoire de transfert et d'expression de gènes. Il est membre du département de médecine du Memorial Hospital et du programme d'immunologie de l'Institut Sloan Kettering. Il est surtout connu pour ses contributions majeures à l'ingénierie des cellules T et à la thérapie des récepteurs antigéniques chimériques (CAR), une immunothérapie basée sur l'ingénierie génétique des propres cellules T d'un patient pour traiter le cancer.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Sadelain, né en 1960 à Paris, est ingénieur généticien et thérapeute cellulaire au Memorial Sloan Kettering Cancer Center de New York, où il est titulaire de la chaire Steve et Barbara Friedman. Il est le directeur fondateur du Centre d'ingénierie cellulaire et le chef du Laboratoire de transfert et d'expression de gènes. Il est membre du département de médecine du Memorial Hospital et du programme d'immunologie de l'Institut Sloan Kettering. Il est surtout connu pour ses contributions majeures à l'ingénierie des cellules T et à la thérapie des récepteurs antigéniques chimériques (CAR), une immunothérapie basée sur l'ingénierie génétique des propres cellules T d'un patient pour traiter le cancer.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Formation et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient un doctorat en médecine à l'université de Paris, en 1984[3] puis un doctorat en immunologie à l'université d'Alberta à Edmonton, au Canada, en 1989. Il suit une formation postdoctorale au Whitehead Institute for Biomedical Research, au Massachusetts Institute of Technology (MIT) à Cambridge, au Massachusetts[3]. C'est au MIT que Sadelain commence ses recherches sur le génie génétique[4]. En 1994, il rejoint Memorial Sloan Kettering en tant que membre assistant de l'Institut Sloan Kettering, où il met en place des programmes sur l'ingénierie des cellules souches hématopoïétiques humaines et des cellules T.
-En 2008, il fonde le Centre d'ingénierie cellulaire à Memorial Sloan Kettering[4]. Il est l'ancien président de la Société américaine de thérapie cellulaire et génique (2014-2015) et a siégé à son conseil d'administration de 2004 à 2007. Il a été membre du Recombinant DNA Advisory Committee (RAC) du NIH de 2013 à 2015[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient un doctorat en médecine à l'université de Paris, en 1984 puis un doctorat en immunologie à l'université d'Alberta à Edmonton, au Canada, en 1989. Il suit une formation postdoctorale au Whitehead Institute for Biomedical Research, au Massachusetts Institute of Technology (MIT) à Cambridge, au Massachusetts. C'est au MIT que Sadelain commence ses recherches sur le génie génétique. En 1994, il rejoint Memorial Sloan Kettering en tant que membre assistant de l'Institut Sloan Kettering, où il met en place des programmes sur l'ingénierie des cellules souches hématopoïétiques humaines et des cellules T.
+En 2008, il fonde le Centre d'ingénierie cellulaire à Memorial Sloan Kettering. Il est l'ancien président de la Société américaine de thérapie cellulaire et génique (2014-2015) et a siégé à son conseil d'administration de 2004 à 2007. Il a été membre du Recombinant DNA Advisory Committee (RAC) du NIH de 2013 à 2015.
 </t>
         </is>
       </c>
@@ -543,18 +557,20 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sadelain et son équipe étudient le transfert de gènes dans les cellules souches hématopoïétiques et les cellules T, la régulation de l'expression des transgènes, la biologie des récepteurs antigéniques chimériques et les stratégies thérapeutiques visant à renforcer l'immunité contre le cancer. Il est un spécialiste reconnu dans la conceptualisation et la conception de récepteurs synthétiques pour l'antigène, qu'il a nommés récepteurs antigéniques chimériques (CAR)[5].
-Les cellules T peuvent être modifiées pour exprimer un CAR afin d'acquérir la capacité de reconnaître et de détruire les cellules cancéreuses. Sadelain a qualifié les cellules T CAR de « médicaments vivants »[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sadelain et son équipe étudient le transfert de gènes dans les cellules souches hématopoïétiques et les cellules T, la régulation de l'expression des transgènes, la biologie des récepteurs antigéniques chimériques et les stratégies thérapeutiques visant à renforcer l'immunité contre le cancer. Il est un spécialiste reconnu dans la conceptualisation et la conception de récepteurs synthétiques pour l'antigène, qu'il a nommés récepteurs antigéniques chimériques (CAR).
+Les cellules T peuvent être modifiées pour exprimer un CAR afin d'acquérir la capacité de reconnaître et de détruire les cellules cancéreuses. Sadelain a qualifié les cellules T CAR de « médicaments vivants ».
 Un CAR comprend généralement un fragment d'anticorps (scFv (en)) pour reconnaître le cancer et un domaine de signalisation modulaire pour activer la cellule T et promouvoir sa multiplication et sa persistance.
-Les cellules T CAR sont fabriquées en extrayant les cellules T d'un patient cancéreux, en insérant une CAR dans la cellule à l'aide d'un vecteur tel qu'un vecteur gamma-rétroviral ou lentiviral, puis en réinfusant les cellules T génétiquement instruites. Les recherches actuelles de Sadelain font appel à l'édition du génome, dont il a montré qu'elle permettait d'obtenir de meilleures cellules T CAR lorsque la CAR est exprimée à partir du locus TRAC[7],[8],[9].
-Le laboratoire de Sadelain a conçu des CAR de deuxième génération, dotés à la fois de propriétés d'activation et de costimulation, ce qui fait partie intégrante du succès des thérapies CAR[10]. En 2003, le laboratoire de Sadelain a identifié le CD19 comme une cible pour la thérapie CAR chez la souris. Après l'établissement de la fabrication clinique de cellules CAR T par le Dr Isabelle Rivière au Memorial Sloan Kettering Cancer Center, l'équipe de Sadelain a été la première à faire état de réponses moléculaires complètes induites par des cellules CAR T CD19 chez des adultes atteints de leucémie lymphoblastique aiguë récidivante et réfractaire[11],[12],[13]. L'équipe du Memorial Sloan Kettering Cancer Center a reçu la désignation de percée de la FDA pour ce traitement en 2014.
-En 2017, la FDA américaine a approuvé les premières thérapies CAR, ciblant CD19 avec des CAR de deuxième génération[14].
-Les recherches de M. Sadelain sur les cellules CAR T « prêtes à l'emploi » dérivées de cellules souches pluripotentes induites (iPSC) sont actuellement développées dans le cadre d'une collaboration avec Fate Therapeutics. Ses recherches avec le Dr Prasad S. Adusumilli ont abouti à une collaboration avec Atara Biotherapeutics, Inc. pour un produit candidat destiné à traiter le mésothéliome malin à l'aide de cellules CAR T ciblant la mésothéline, appelées icasM28z[15].
-En 2013, Sadelain a cofondé Juno Therapeutics Inc.[16],[17].
-Sadelain a également conçu des vecteurs lentiviraux codant le gène de la β-globine pour le traitement des hémoglobinopathies graves, dont la β-thalassémie et la drépanocytose[18].
-L'équipe de MSK a été la première à traiter des patients atteints de β-thalassémie aux États-Unis[18]. L'histoire du domaine et les contributions de Sadelain sont relatées dans la conférence commémorative George Stamatoyannopoulos de 2021 lors de la réunion annuelle de l'American Society of Gene and Cell Therapy[19],[20].
+Les cellules T CAR sont fabriquées en extrayant les cellules T d'un patient cancéreux, en insérant une CAR dans la cellule à l'aide d'un vecteur tel qu'un vecteur gamma-rétroviral ou lentiviral, puis en réinfusant les cellules T génétiquement instruites. Les recherches actuelles de Sadelain font appel à l'édition du génome, dont il a montré qu'elle permettait d'obtenir de meilleures cellules T CAR lorsque la CAR est exprimée à partir du locus TRAC.
+Le laboratoire de Sadelain a conçu des CAR de deuxième génération, dotés à la fois de propriétés d'activation et de costimulation, ce qui fait partie intégrante du succès des thérapies CAR. En 2003, le laboratoire de Sadelain a identifié le CD19 comme une cible pour la thérapie CAR chez la souris. Après l'établissement de la fabrication clinique de cellules CAR T par le Dr Isabelle Rivière au Memorial Sloan Kettering Cancer Center, l'équipe de Sadelain a été la première à faire état de réponses moléculaires complètes induites par des cellules CAR T CD19 chez des adultes atteints de leucémie lymphoblastique aiguë récidivante et réfractaire. L'équipe du Memorial Sloan Kettering Cancer Center a reçu la désignation de percée de la FDA pour ce traitement en 2014.
+En 2017, la FDA américaine a approuvé les premières thérapies CAR, ciblant CD19 avec des CAR de deuxième génération.
+Les recherches de M. Sadelain sur les cellules CAR T « prêtes à l'emploi » dérivées de cellules souches pluripotentes induites (iPSC) sont actuellement développées dans le cadre d'une collaboration avec Fate Therapeutics. Ses recherches avec le Dr Prasad S. Adusumilli ont abouti à une collaboration avec Atara Biotherapeutics, Inc. pour un produit candidat destiné à traiter le mésothéliome malin à l'aide de cellules CAR T ciblant la mésothéline, appelées icasM28z.
+En 2013, Sadelain a cofondé Juno Therapeutics Inc.,.
+Sadelain a également conçu des vecteurs lentiviraux codant le gène de la β-globine pour le traitement des hémoglobinopathies graves, dont la β-thalassémie et la drépanocytose.
+L'équipe de MSK a été la première à traiter des patients atteints de β-thalassémie aux États-Unis. L'histoire du domaine et les contributions de Sadelain sont relatées dans la conférence commémorative George Stamatoyannopoulos de 2021 lors de la réunion annuelle de l'American Society of Gene and Cell Therapy,.
 </t>
         </is>
       </c>
@@ -583,12 +599,14 @@
           <t>Brevets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sadelain détient de nombreux brevets dans le domaine de l'immunothérapie[21].
-Brevet américain n° 7446190B2 portant sur des acides nucléiques codant pour des récepteurs de cellules T chimériques[22].
-Brevet américain no 10,370,452 portant sur des compositions et des utilisations de cellules T effectives exprimant un récepteur d'antigène chimérique (CAR). 10,370,452 couvrant des compositions et des utilisations de cellules T effectives exprimant un récepteur d'antigène chimérique (CAR), où ces cellules T sont dérivées d'une cellule souche pluripotente, y compris une cellule souche pluripotente induite (iPSC)[23].
-Le brevet fait l'objet d'une licence pour le produit candidat de cellules T sans récepteur de cellule T (TCR) CD19, connu sous le nom de FT819[24],[21],[25].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sadelain détient de nombreux brevets dans le domaine de l'immunothérapie.
+Brevet américain n° 7446190B2 portant sur des acides nucléiques codant pour des récepteurs de cellules T chimériques.
+Brevet américain no 10,370,452 portant sur des compositions et des utilisations de cellules T effectives exprimant un récepteur d'antigène chimérique (CAR). 10,370,452 couvrant des compositions et des utilisations de cellules T effectives exprimant un récepteur d'antigène chimérique (CAR), où ces cellules T sont dérivées d'une cellule souche pluripotente, y compris une cellule souche pluripotente induite (iPSC).
+Le brevet fait l'objet d'une licence pour le produit candidat de cellules T sans récepteur de cellule T (TCR) CD19, connu sous le nom de FT819.
 </t>
         </is>
       </c>
@@ -617,19 +635,21 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2012 William B. Coley Award[26].
-2013 Sultan Bin Khalifa International Thalassemia Award[27]
-2017 Passano Laureate and Physician Scientist Award[28]
-2018 Pasteur-Servier-Weizmann Prize Laureate[29].
-2019  Jacob and Louise Gabbay Award in Biotechnology and Medicine[30]
-2019 INSERM International Prize[31]
-2020 Leopold Griffuel Award[32]
-2021 ASGCT Outstanding Achievement Award[20]
-2023 Clarivate Citation Laureates[33]
-2024 Breakthrough Prize in Life Sciences[34]
-2024 Canada Gairdner International Award[35]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2012 William B. Coley Award.
+2013 Sultan Bin Khalifa International Thalassemia Award
+2017 Passano Laureate and Physician Scientist Award
+2018 Pasteur-Servier-Weizmann Prize Laureate.
+2019  Jacob and Louise Gabbay Award in Biotechnology and Medicine
+2019 INSERM International Prize
+2020 Leopold Griffuel Award
+2021 ASGCT Outstanding Achievement Award
+2023 Clarivate Citation Laureates
+2024 Breakthrough Prize in Life Sciences
+2024 Canada Gairdner International Award</t>
         </is>
       </c>
     </row>
@@ -657,10 +677,12 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1998- Krause, Anja; Guo, Hong-Fen; Latouche, Jean-Baptiste; Tan, Cuiwen; Cheung, Nai-Kong V.; Sadelain, Michel (1998-08-17). "Antigen-dependent CD28 Signaling Selectively Enhances Survival and Proliferation in Genetically Modified Activated Human Primary T Lymphocytes" doi 10.1084/jem.188.4.619 ISSN0022-1007 PMID9705944
-2000- Chad May, Stefano Rivella, John Callegari, Glenn Heller, Karen M. L. Gaensler, Lucio Luzzatto &amp; Michel Sadelain Therapeutic haemoglobin synthesis in β-thalassaemic mice expressing lentivirus-encoded human β-globin, Nature 406, 82–86 (2000). [1]
+2000- Chad May, Stefano Rivella, John Callegari, Glenn Heller, Karen M. L. Gaensler, Lucio Luzzatto &amp; Michel Sadelain Therapeutic haemoglobin synthesis in β-thalassaemic mice expressing lentivirus-encoded human β-globin, Nature 406, 82–86 (2000). 
 2002- Maher, John; Brentjens, Renier J.; Gunset, Gertrude; Rivière, Isabelle; Sadelain, Michel Nat Biotechnol 20, 70–75 (2002). "Human T-lymphocyte cytotoxicity and proliferation directed by a single chimeric TCRζ /CD28 receptor"doi10.1038/nbt0102-70ISSN1546-1696
 2003- Brentjens, Renier J.; Latouche, Jean-Baptiste; Santos, Elmer; Marti, Francesc; Gong, Michael C.; Lyddane, Clay; King, Philip D.; Larson, Steven; Weiss, Mark; Rivière, Isabelle; Sadelain, Michel (2003–03). "Eradication of systemic B-cell tumors by genetically targeted human T lymphocytes co-stimulated by CD80 and interleukin-15"doi10.1038/nm827ISSN1546-170X
 2009- Hollyman, Daniel; Stefanski, Jolanta; Przybylowski, Mark; Bartido, Shirley; Borquez-Ojeda, Oriana; Taylor, Clare; Yeh, Raymond; Capacio, Vanessa; Olszewska, Malgorzata; Hosey, James; Sadelain, Michel, Riviere, Isabelle (2009). "Manufacturing validation of biologically functional T cells targeted to CD19 antigen for autologous adoptive cell therapy" doi10.1097/CJI.0b013e318194a6e8 ISSN 1524-9557 PMC2683970 PMID 19238016
@@ -698,15 +720,17 @@
           <t>Participations professionnelles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Il est membre de :
-CRI Accelerator Leadership[36]
-The American Society for Clinical Investigation[3]
-American Association for Cancer Research (AACR)[37]
-American Society for Clinical Investigation (ASCI)[3]
-American Society of Gene and Cell Therapy (ASGCT)[3]
-American Society of Hematology (ASH)[3]</t>
+CRI Accelerator Leadership
+The American Society for Clinical Investigation
+American Association for Cancer Research (AACR)
+American Society for Clinical Investigation (ASCI)
+American Society of Gene and Cell Therapy (ASGCT)
+American Society of Hematology (ASH)</t>
         </is>
       </c>
     </row>
